--- a/example_staffing.xlsx
+++ b/example_staffing.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\640109\T1Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ED0629-CEBB-4E37-8B9B-96642FEE0CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791050B0-76EF-4453-B5F9-2B5E932A352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -314,9 +314,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,16 +351,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -524,11 +520,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -543,6 +536,13 @@
         </top>
         <bottom style="medium">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -595,48 +595,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2242FB6-0313-4A8F-A32B-8E802C0A17CE}" name="Table25" displayName="Table25" ref="A2:W8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2242FB6-0313-4A8F-A32B-8E802C0A17CE}" name="Table25" displayName="Table25" ref="A2:W8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A2:W8" xr:uid="{C2242FB6-0313-4A8F-A32B-8E802C0A17CE}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{86E64FDB-66DF-42FD-A3B3-BDC3D5B784A1}" name="Role"/>
     <tableColumn id="2" xr3:uid="{3CAAAB8B-0B17-476F-BE63-94DC99F13FF4}" name="LCAT"/>
     <tableColumn id="3" xr3:uid="{C215CCB1-2F65-4DFD-AB83-7C13275476D7}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{567B19FA-887E-4642-AA92-6F05304B0F8B}" name="Funded Hours " dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{CB97B120-C589-4133-8C20-B1C1931E6AE1}" name="September" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{8905842D-3EBD-43CB-B0C0-51BD37B9A503}" name="%FTE" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EFB99465-B2B9-46B8-AB5A-BB423497F29E}" name="October" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{E1C4F5AD-9E3B-4568-8539-32D562A94B61}" name="%FTE2" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{567B19FA-887E-4642-AA92-6F05304B0F8B}" name="Funded Hours " dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{CB97B120-C589-4133-8C20-B1C1931E6AE1}" name="September" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{8905842D-3EBD-43CB-B0C0-51BD37B9A503}" name="%FTE" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{EFB99465-B2B9-46B8-AB5A-BB423497F29E}" name="October" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{E1C4F5AD-9E3B-4568-8539-32D562A94B61}" name="%FTE2" dataDxfId="15">
       <calculatedColumnFormula>G3/G$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7EDE6F31-EEAB-4807-92E1-C968AC7FD846}" name="November" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{A9961D87-BA7E-4D5B-89A1-362BAAA096BE}" name="%FTE3" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{7EDE6F31-EEAB-4807-92E1-C968AC7FD846}" name="November" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{A9961D87-BA7E-4D5B-89A1-362BAAA096BE}" name="%FTE3" dataDxfId="13">
       <calculatedColumnFormula>I3/I$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{89B29112-8952-4242-A86D-3C6E33ACC4EC}" name="December " dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{27A6F624-2F1E-4DEC-9870-804C183D58BE}" name="%FTE4" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{89B29112-8952-4242-A86D-3C6E33ACC4EC}" name="December " dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{27A6F624-2F1E-4DEC-9870-804C183D58BE}" name="%FTE4" dataDxfId="11">
       <calculatedColumnFormula>K3/K$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A0ACF023-7D4A-47DC-9169-F685B476C9C3}" name="January " dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{8F5EADB4-9F0B-4C3E-A22D-E70D6A23E287}" name="%FTE5" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{A0ACF023-7D4A-47DC-9169-F685B476C9C3}" name="January " dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{8F5EADB4-9F0B-4C3E-A22D-E70D6A23E287}" name="%FTE5" dataDxfId="9">
       <calculatedColumnFormula>M3/M$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DA81FB11-B7F9-48DC-B6C0-1975D0D46E5E}" name="February" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{6E82EEAC-994D-4AA6-AA9D-48422E19AB4A}" name="%FTE6" dataDxfId="8">
+    <tableColumn id="15" xr3:uid="{DA81FB11-B7F9-48DC-B6C0-1975D0D46E5E}" name="February" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{6E82EEAC-994D-4AA6-AA9D-48422E19AB4A}" name="%FTE6" dataDxfId="7">
       <calculatedColumnFormula>O3/O$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{72447A8E-6FC7-4C44-B3D7-C0283C86468D}" name="March" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{EEEE5A42-EAB9-49FA-8042-4D39CF0C813A}" name="%FTE7" dataDxfId="6">
+    <tableColumn id="17" xr3:uid="{72447A8E-6FC7-4C44-B3D7-C0283C86468D}" name="March" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{EEEE5A42-EAB9-49FA-8042-4D39CF0C813A}" name="%FTE7" dataDxfId="5">
       <calculatedColumnFormula>Q3/Q$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A23454B6-87BD-42BA-9272-E6A026BB340D}" name="April" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{1E07E8B1-97D2-4006-BB98-FE9B6C511605}" name="%FTE8" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{A23454B6-87BD-42BA-9272-E6A026BB340D}" name="April" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{1E07E8B1-97D2-4006-BB98-FE9B6C511605}" name="%FTE8" dataDxfId="3">
       <calculatedColumnFormula>S3/S$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{050D9FEC-1D78-4622-B054-3EBD9DA05498}" name="May" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{E12C643F-4934-4C4B-BC48-55E89032DD9D}" name="%FTE9" dataDxfId="2">
+    <tableColumn id="21" xr3:uid="{050D9FEC-1D78-4622-B054-3EBD9DA05498}" name="May" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{E12C643F-4934-4C4B-BC48-55E89032DD9D}" name="%FTE9" dataDxfId="1">
       <calculatedColumnFormula>U3/U$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{50BE8CC1-D6D2-4B46-9CC7-761464010B26}" name="Hours Delta" dataDxfId="1">
+    <tableColumn id="25" xr3:uid="{50BE8CC1-D6D2-4B46-9CC7-761464010B26}" name="Hours Delta" dataDxfId="0">
       <calculatedColumnFormula>D3-SUM(E3:V3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -910,18 +910,18 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1">
         <v>168</v>
       </c>
@@ -967,73 +967,73 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1047,331 +1047,339 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>160</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11">
+      <c r="E3" s="9">
+        <v>40</v>
+      </c>
+      <c r="F3" s="10">
         <f>E3/E$1</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G3" s="8">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10">
         <f>G3/G$1</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="I3" s="11">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10">
         <f>I3/I$1</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K3" s="11">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10">
         <f>K3/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10">
         <f>M3/M$1</f>
         <v>0</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11">
+      <c r="O3" s="11"/>
+      <c r="P3" s="10">
         <f>O3/O$1</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10">
         <f>Q3/Q$1</f>
         <v>0</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11">
+      <c r="S3" s="11"/>
+      <c r="T3" s="10">
         <f>S3/S$1</f>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="11">
+      <c r="U3" s="11"/>
+      <c r="V3" s="10">
         <f>U3/U$1</f>
         <v>0</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="11">
         <f>D3-SUM(E3:V3)</f>
-        <v>160</v>
+        <v>29.212662337662323</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>640</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F6" si="0">E4/$E$1</f>
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11">
+      <c r="G4" s="8"/>
+      <c r="H4" s="10">
         <f t="shared" ref="H4:H8" si="1">G4/G$1</f>
         <v>0</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11">
+      <c r="I4" s="11"/>
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J8" si="2">I4/I$1</f>
         <v>0</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="11">
+      <c r="K4" s="11"/>
+      <c r="L4" s="10">
         <f t="shared" ref="L4:L8" si="3">K4/K$1</f>
         <v>0</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11">
+      <c r="M4" s="11"/>
+      <c r="N4" s="10">
         <f t="shared" ref="N4:N8" si="4">M4/M$1</f>
         <v>0</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="11">
+      <c r="O4" s="11"/>
+      <c r="P4" s="10">
         <f t="shared" ref="P4:P8" si="5">O4/O$1</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="11">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10">
         <f t="shared" ref="R4:R8" si="6">Q4/Q$1</f>
         <v>0</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11">
+      <c r="S4" s="11"/>
+      <c r="T4" s="10">
         <f t="shared" ref="T4:T8" si="7">S4/S$1</f>
         <v>0</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="11">
+      <c r="U4" s="11"/>
+      <c r="V4" s="10">
         <f t="shared" ref="V4:V8" si="8">U4/U$1</f>
         <v>0</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="11">
         <f>D4-SUM(E4:V4)</f>
         <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>160</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11">
+      <c r="G5" s="8"/>
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11">
+      <c r="I5" s="11"/>
+      <c r="J5" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11">
+      <c r="K5" s="11"/>
+      <c r="L5" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11">
+      <c r="M5" s="11"/>
+      <c r="N5" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11">
+      <c r="O5" s="11"/>
+      <c r="P5" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="11">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11">
+      <c r="S5" s="11"/>
+      <c r="T5" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="11">
+      <c r="U5" s="11"/>
+      <c r="V5" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <f>D5-SUM(E5:V5)</f>
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>840</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
+      <c r="G6" s="8"/>
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11">
+      <c r="I6" s="11"/>
+      <c r="J6" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11">
+      <c r="K6" s="11"/>
+      <c r="L6" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11">
+      <c r="M6" s="11"/>
+      <c r="N6" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11">
+      <c r="O6" s="11"/>
+      <c r="P6" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="11">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11">
+      <c r="S6" s="11"/>
+      <c r="T6" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="11">
+      <c r="U6" s="11"/>
+      <c r="V6" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <f>D6-SUM(E6:V6)</f>
         <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1360</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13">
+      <c r="E7" s="9"/>
+      <c r="F7" s="12">
         <f>E7/E1</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11">
+      <c r="G7" s="8"/>
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11">
+      <c r="I7" s="11"/>
+      <c r="J7" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11">
+      <c r="K7" s="11"/>
+      <c r="L7" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11">
+      <c r="M7" s="11"/>
+      <c r="N7" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11">
+      <c r="O7" s="11"/>
+      <c r="P7" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="11">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11">
+      <c r="S7" s="11"/>
+      <c r="T7" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="11">
+      <c r="U7" s="11"/>
+      <c r="V7" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="11">
         <f t="shared" ref="W7:W8" si="9">D7-SUM(E7:V7)</f>
         <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1280</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13">
+      <c r="E8" s="9"/>
+      <c r="F8" s="12">
         <f>E8/E1</f>
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
+      <c r="G8" s="8"/>
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11">
+      <c r="I8" s="11"/>
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11">
+      <c r="K8" s="11"/>
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11">
+      <c r="M8" s="11"/>
+      <c r="N8" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11">
+      <c r="O8" s="11"/>
+      <c r="P8" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11">
+      <c r="S8" s="11"/>
+      <c r="T8" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="11">
+      <c r="U8" s="11"/>
+      <c r="V8" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="11">
         <f t="shared" si="9"/>
         <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
